--- a/DDRK-ME/TEST.xlsx
+++ b/DDRK-ME/TEST.xlsx
@@ -42,7 +42,7 @@
 </t>
   </si>
   <si>
-    <t>第0集</t>
+    <t>第1集</t>
   </si>
   <si>
     <t>http://sz-ctfs.ftn.qq.com/A.Serial.Killers.Guide.To.Life.mp4?ver=5199&amp;rkey=ec1766a8535da2158aec65486b0990791f76ae609efc0b94d297e11354b3bda65318b06b7450d820aa2381fca649ba016e6dfac571c0733f50771984b6aeff9a</t>
@@ -73,7 +73,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E01.vtt</t>
   </si>
   <si>
-    <t>第1集</t>
+    <t>第2集</t>
   </si>
   <si>
     <t>http://sh-ctfs.ftn.qq.com/Last_Friends_E02.mp4?ver=5199&amp;rkey=d5b059343b4d2e6ad46b15156c90278b51b47a1e4603c1f9f738a463c495b7c7998d39283cddf4e43a27abb43ee47b96464e003818f52ca43c13997c11443784</t>
@@ -82,7 +82,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E02.vtt</t>
   </si>
   <si>
-    <t>第2集</t>
+    <t>第3集</t>
   </si>
   <si>
     <t>http://cd-ctfs.ftn.qq.com/Last_Friends_E03.mp4?ver=5199&amp;rkey=5601198c9b79d263f276463c5cf0f8d0c5b934a1058d392517d4bba7ee718db3763d9f2eb063f5121c2db63eb9d4623c8600ede51802368978926bf0b671fad3</t>
@@ -91,7 +91,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E03.vtt</t>
   </si>
   <si>
-    <t>第3集</t>
+    <t>第4集</t>
   </si>
   <si>
     <t>http://sh-ctfs.ftn.qq.com/Last_Friends_E04.mp4?ver=5199&amp;rkey=1bd7317cdf1f7ed11166186bbe25e3c5b127a58054accf85dd462331c557ac87e229e37470e26cfc9268dd926776cbcd16bf3519bb3cba5cb98864e76f875319</t>
@@ -100,7 +100,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E04.vtt</t>
   </si>
   <si>
-    <t>第4集</t>
+    <t>第5集</t>
   </si>
   <si>
     <t>http://sh-ctfs.ftn.qq.com/Last_Friends_E05.mp4?ver=5199&amp;rkey=942d60710a996f580961832a9e75550573c1b68bc4eb78e1aaa1db16b251565ad04856426623d7aaacd1e05348b3d7455d009f300a0a4e1aeae4a404df6e2b8a</t>
@@ -109,7 +109,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E05.vtt</t>
   </si>
   <si>
-    <t>第5集</t>
+    <t>第6集</t>
   </si>
   <si>
     <t>http://sh-ctfs.ftn.qq.com/Last_Friends_E06.mp4?ver=5199&amp;rkey=5227c0ebef5f428d47af38eb4e64042008aeeb88e1ddecefd9c73473e3c7583dc869fd7a1e186b9d2cf601013c9b8597be0bd4adfcac7fa46aefe6359359788f</t>
@@ -118,7 +118,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E06.vtt</t>
   </si>
   <si>
-    <t>第6集</t>
+    <t>第7集</t>
   </si>
   <si>
     <t>http://sh-ctfs.ftn.qq.com/Last_Friends_E07.mp4?ver=5199&amp;rkey=4ed6d2ae949b3d182748c7b8b467596daddf31ca6cdd3b5a88d57a840dcbbccaceb7b11036f54d92016f25a2ffc8d14e511e4c1cfc6ec36a08024a97291a5be1</t>
@@ -127,7 +127,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E07.vtt</t>
   </si>
   <si>
-    <t>第7集</t>
+    <t>第8集</t>
   </si>
   <si>
     <t>http://sh-ctfs.ftn.qq.com/Last_Friends_E08.mp4?ver=5199&amp;rkey=26caba495a9fa60346ba9aaa54d5da4ecc374983eedbaf321c960b6deef14baecd3ca03641d53839f17819979da945aa675f8706795e9493c0d42368bfba1074</t>
@@ -136,7 +136,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E08.vtt</t>
   </si>
   <si>
-    <t>第8集</t>
+    <t>第9集</t>
   </si>
   <si>
     <t>http://sh-ctfs.ftn.qq.com/Last_Friends_E09.mp4?ver=5199&amp;rkey=9b7ad5ae73c8fe9ee6e805489a13e44718178d63daf7cd41e1b6241ba592cc1985ffa207e119edcab5f87f7eaaf292d27464f059afe00243aea15e2398b1566c</t>
@@ -145,7 +145,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E09.vtt</t>
   </si>
   <si>
-    <t>第9集</t>
+    <t>第10集</t>
   </si>
   <si>
     <t>http://sz-ctfs.ftn.qq.com/Last_Friends_E10.mp4?ver=5199&amp;rkey=40dc32c6b8b911b9c7d54bb5aa6815eef68b79cb6e24c191bbd8e477c631fcd117118fcde498dffdddd5552d07092b7957f28fb6e5d8634e02d7bc4eeb3b0f88</t>
@@ -154,7 +154,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E10.vtt</t>
   </si>
   <si>
-    <t>第10集</t>
+    <t>第11集</t>
   </si>
   <si>
     <t>http://sz-ctfs.ftn.qq.com/Last_Friends_E11.mp4?ver=5199&amp;rkey=57920d622576372d65ad6675ba633e479baaf2eca1d5a765ab0f72095bb061063856c92dac7bea1e1087e0f1486d7b4f33e971d43e701a5b41320cad74f57969</t>
@@ -163,7 +163,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/jp_drama/Last_Friends/Last_Friends_E11.vtt</t>
   </si>
   <si>
-    <t>第11集</t>
+    <t>第12集</t>
   </si>
   <si>
     <t>http://sh-ctfs.ftn.qq.com/Last_Friends_SP.mp4?ver=5199&amp;rkey=d272b3488b20edb56fe049b2bd9b07df61024beaa82ea4a2e66c80474c64c9bb53323a62950e5328296b9212c9e181ca00fb651685ae497f22859e3eccde363f</t>
@@ -339,7 +339,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/kr_drama/love_with_flaws/love_with_flaws_e12.vtt</t>
   </si>
   <si>
-    <t>第12集</t>
+    <t>第13集</t>
   </si>
   <si>
     <t>http://sz-ctfs.ftn.qq.com/love_with_flaws_e13.mp4?ver=5199&amp;rkey=b8d0b95e90b5d8c1857561ae3f6865b25aceb91f3a37a10edae94477164cb7dcfebd7e7d230e9a66a6ddd7e54ffeeadcad94862e7c23b0dd87297d4013fae538</t>
@@ -348,7 +348,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/kr_drama/love_with_flaws/love_with_flaws_e13.vtt</t>
   </si>
   <si>
-    <t>第13集</t>
+    <t>第14集</t>
   </si>
   <si>
     <t>http://sz-ctfs.ftn.qq.com/love_with_flaws_e14.mp4?ver=5199&amp;rkey=380d9148c4d5b02fe5467f8f0d0fb2bcbbbac42c33c88847b557b5db6c10b5250082f5fd5c3294c1d3cc9b5546966d2788317c90288a580e99f3d944217d8710</t>
@@ -357,7 +357,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/kr_drama/love_with_flaws/love_with_flaws_e14.vtt</t>
   </si>
   <si>
-    <t>第14集</t>
+    <t>第15集</t>
   </si>
   <si>
     <t>http://sz-ctfs.ftn.qq.com/love_with_flaws_e15.mp4?ver=5199&amp;rkey=d0abde85a168e21e4a1993a270057d9017c19f253ad6b00bc6e22281b0ad6262d3af1820aa95650759b90ec68fe44ae93de94d5073f402a77b36a8ee76005c54</t>
@@ -366,7 +366,7 @@
     <t>https://ddrk.oss-cn-shanghai.aliyuncs.com/v/kr_drama/love_with_flaws/love_with_flaws_e15.vtt</t>
   </si>
   <si>
-    <t>第15集</t>
+    <t>第16集</t>
   </si>
   <si>
     <t>http://sz-ctfs.ftn.qq.com/love_with_flaws_e16.mp4?ver=5199&amp;rkey=403244ed75729a3f658394bc3f4e7247b58e5dc0359e229226ec023ac4dbce3c278a4cd486783773154e07f43a87032ce84c39347318d173b16ceac64f45ea1c</t>
@@ -3763,9 +3763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3785,7 +3785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190500"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3803,8 +3803,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3824,8 +3824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3133725"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="2562225"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3843,8 +3843,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3864,8 +3864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8172450"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="7029450"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3883,9 +3883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3904,8 +3904,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11496675"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="9782175"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3923,8 +3923,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3944,8 +3944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14439900"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="12153900"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3963,8 +3963,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3984,8 +3984,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17573625"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="14716125"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4003,9 +4003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4024,8 +4024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23374350"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="19945350"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4043,9 +4043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4064,8 +4064,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26317575"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="22317075"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4083,8 +4083,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4104,8 +4104,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29260800"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="24688800"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4123,9 +4123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4144,8 +4144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="33918525"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="28775025"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4163,8 +4163,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4184,8 +4184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="36861750"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="31146750"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4203,8 +4203,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4224,8 +4224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="42662475"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="36375975"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4243,8 +4243,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4264,8 +4264,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="47701200"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="40843200"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4283,8 +4283,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4304,8 +4304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="52549425"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="45119925"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4323,9 +4323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4344,8 +4344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="55683150"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="47682150"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4363,8 +4363,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4384,8 +4384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="58626375"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="50053875"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4403,8 +4403,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4424,8 +4424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="62522100"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="53378100"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4443,9 +4443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4464,8 +4464,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="67370325"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="57654825"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4483,8 +4483,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4504,8 +4504,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="70313550"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="60026550"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4523,8 +4523,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4544,8 +4544,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="75542775"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="64684275"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4563,8 +4563,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4584,8 +4584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="79248000"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="67818000"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4603,8 +4603,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4624,8 +4624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="84477225"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="72475725"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4643,9 +4643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4664,8 +4664,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="87801450"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="75228450"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4683,8 +4683,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4704,8 +4704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="90744675"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="77600175"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4723,8 +4723,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4744,8 +4744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="95592900"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="81876900"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4763,8 +4763,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4784,8 +4784,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="100250625"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="85963125"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4803,8 +4803,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4824,8 +4824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="104146350"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="89287350"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4843,9 +4843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4864,8 +4864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="108423075"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="92992575"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4883,8 +4883,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4904,8 +4904,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="111366300"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="95364300"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4923,9 +4923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4944,8 +4944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="115643025"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="99069525"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4963,8 +4963,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4984,8 +4984,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="118586250"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="101441250"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5003,8 +5003,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5024,8 +5024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="123243975"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="105527475"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5043,8 +5043,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5064,8 +5064,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="129044700"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="110756700"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5083,9 +5083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5104,8 +5104,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="132940425"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="114080925"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5123,9 +5123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5144,8 +5144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="135883650"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="116452650"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5163,8 +5163,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5184,8 +5184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="138826875"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="118824375"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5203,9 +5203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5224,8 +5224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="142151100"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="121577100"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5243,8 +5243,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5264,8 +5264,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="145094325"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="123948825"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5283,8 +5283,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5304,8 +5304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="149371050"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="127654050"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5323,8 +5323,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5344,8 +5344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="154028775"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="131740275"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5363,8 +5363,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5384,8 +5384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="158686500"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="135826500"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5403,8 +5403,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5424,8 +5424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="162963225"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="139531725"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5443,8 +5443,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5464,8 +5464,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="167620950"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="143617950"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5483,8 +5483,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5504,8 +5504,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="172278675"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="147704175"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5523,8 +5523,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5544,8 +5544,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="178079400"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="152933400"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5563,9 +5563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>354</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5584,8 +5584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="182356125"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="156638625"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5603,8 +5603,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>355</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5624,8 +5624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="185299350"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="159010350"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5643,8 +5643,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>367</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5664,8 +5664,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190147575"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="163287075"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5683,8 +5683,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5704,8 +5704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="194614800"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="167182800"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5723,9 +5723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>392</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5744,8 +5744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="199844025"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="171840525"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5763,8 +5763,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5784,8 +5784,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="202787250"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="174212250"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5803,9 +5803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>405</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5824,8 +5824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="207444975"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="178298475"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5843,9 +5843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>407</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5864,8 +5864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="210388200"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="180670200"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5883,8 +5883,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>410</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5904,8 +5904,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="213331425"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="183041925"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5923,8 +5923,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>420</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>418</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5944,8 +5944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="217798650"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="186937650"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5963,9 +5963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>431</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5984,8 +5984,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="222646875"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="191214375"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6003,8 +6003,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>434</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6024,8 +6024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="225590100"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="193586100"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6043,8 +6043,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>438</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>436</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6064,8 +6064,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="228914325"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="196338825"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6083,8 +6083,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>443</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>441</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6104,8 +6104,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="232429050"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="199282050"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6123,8 +6123,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>456</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>454</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6144,8 +6144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="237467775"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="203749275"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6163,8 +6163,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>460</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>458</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6184,8 +6184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="240792000"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="206502000"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6203,8 +6203,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>461</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6224,8 +6224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="243925725"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="209064225"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6243,9 +6243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>474</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6264,8 +6264,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="248773950"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="213340950"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6283,8 +6283,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>477</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6304,8 +6304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="251717175"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="215712675"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6323,8 +6323,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>492</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>490</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6344,8 +6344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="257136900"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="220560900"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6363,8 +6363,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>497</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>495</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6384,8 +6384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="260651625"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="223504125"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6403,8 +6403,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>501</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>499</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6424,8 +6424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="263975850"/>
-          <a:ext cx="2038350" cy="3159125"/>
+          <a:off x="0" y="226256850"/>
+          <a:ext cx="1781175" cy="2206625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6728,10 +6728,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="80.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6748,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="217" customHeight="1">
+    <row r="2" spans="1:4" ht="172" customHeight="1">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="217" customHeight="1">
+    <row r="4" spans="1:4" ht="172" customHeight="1">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="217" customHeight="1">
+    <row r="17" spans="2:4" ht="172" customHeight="1">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="217" customHeight="1">
+    <row r="21" spans="2:4" ht="172" customHeight="1">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="217" customHeight="1">
+    <row r="23" spans="2:4" ht="172" customHeight="1">
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="217" customHeight="1">
+    <row r="26" spans="2:4" ht="172" customHeight="1">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="217" customHeight="1">
+    <row r="43" spans="2:4" ht="172" customHeight="1">
       <c r="B43" t="s">
         <v>102</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="217" customHeight="1">
+    <row r="45" spans="2:4" ht="172" customHeight="1">
       <c r="B45" t="s">
         <v>106</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="217" customHeight="1">
+    <row r="47" spans="2:4" ht="172" customHeight="1">
       <c r="B47" t="s">
         <v>110</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="217" customHeight="1">
+    <row r="58" spans="2:4" ht="172" customHeight="1">
       <c r="B58" t="s">
         <v>132</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="217" customHeight="1">
+    <row r="60" spans="2:4" ht="172" customHeight="1">
       <c r="B60" t="s">
         <v>136</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="217" customHeight="1">
+    <row r="77" spans="2:4" ht="172" customHeight="1">
       <c r="B77" t="s">
         <v>170</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="217" customHeight="1">
+    <row r="90" spans="2:4" ht="172" customHeight="1">
       <c r="B90" t="s">
         <v>196</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="102" spans="2:4" ht="217" customHeight="1">
+    <row r="102" spans="2:4" ht="172" customHeight="1">
       <c r="B102" t="s">
         <v>220</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="2:4" ht="217" customHeight="1">
+    <row r="105" spans="2:4" ht="172" customHeight="1">
       <c r="B105" t="s">
         <v>226</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="2:4" ht="217" customHeight="1">
+    <row r="107" spans="2:4" ht="172" customHeight="1">
       <c r="B107" t="s">
         <v>230</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="114" spans="2:4" ht="217" customHeight="1">
+    <row r="114" spans="2:4" ht="172" customHeight="1">
       <c r="B114" t="s">
         <v>244</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="2:4" ht="217" customHeight="1">
+    <row r="126" spans="2:4" ht="172" customHeight="1">
       <c r="B126" t="s">
         <v>268</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="128" spans="2:4" ht="217" customHeight="1">
+    <row r="128" spans="2:4" ht="172" customHeight="1">
       <c r="B128" t="s">
         <v>272</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="142" spans="2:4" ht="217" customHeight="1">
+    <row r="142" spans="2:4" ht="172" customHeight="1">
       <c r="B142" t="s">
         <v>300</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="148" spans="2:4" ht="217" customHeight="1">
+    <row r="148" spans="2:4" ht="172" customHeight="1">
       <c r="B148" t="s">
         <v>312</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="162" spans="2:4" ht="217" customHeight="1">
+    <row r="162" spans="2:4" ht="172" customHeight="1">
       <c r="B162" t="s">
         <v>340</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="166" spans="2:4" ht="217" customHeight="1">
+    <row r="166" spans="2:4" ht="172" customHeight="1">
       <c r="B166" t="s">
         <v>348</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="168" spans="2:4" ht="217" customHeight="1">
+    <row r="168" spans="2:4" ht="172" customHeight="1">
       <c r="B168" t="s">
         <v>352</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="217" customHeight="1">
+    <row r="180" spans="2:4" ht="172" customHeight="1">
       <c r="B180" t="s">
         <v>376</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="217" customHeight="1">
+    <row r="191" spans="2:4" ht="172" customHeight="1">
       <c r="B191" t="s">
         <v>398</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="217" customHeight="1">
+    <row r="198" spans="2:4" ht="172" customHeight="1">
       <c r="B198" t="s">
         <v>412</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="207" spans="2:4" ht="217" customHeight="1">
+    <row r="207" spans="2:4" ht="172" customHeight="1">
       <c r="B207" t="s">
         <v>430</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="217" customHeight="1">
+    <row r="209" spans="2:4" ht="172" customHeight="1">
       <c r="B209" t="s">
         <v>434</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="218" spans="2:4" ht="217" customHeight="1">
+    <row r="218" spans="2:4" ht="172" customHeight="1">
       <c r="B218" t="s">
         <v>452</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="220" spans="2:4" ht="217" customHeight="1">
+    <row r="220" spans="2:4" ht="172" customHeight="1">
       <c r="B220" t="s">
         <v>456</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="231" spans="2:4" ht="217" customHeight="1">
+    <row r="231" spans="2:4" ht="172" customHeight="1">
       <c r="B231" t="s">
         <v>478</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="217" customHeight="1">
+    <row r="248" spans="2:4" ht="172" customHeight="1">
       <c r="B248" t="s">
         <v>512</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="217" customHeight="1">
+    <row r="255" spans="2:4" ht="172" customHeight="1">
       <c r="B255" t="s">
         <v>526</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="217" customHeight="1">
+    <row r="257" spans="2:4" ht="172" customHeight="1">
       <c r="B257" t="s">
         <v>530</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="217" customHeight="1">
+    <row r="259" spans="2:4" ht="172" customHeight="1">
       <c r="B259" t="s">
         <v>534</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="217" customHeight="1">
+    <row r="263" spans="2:4" ht="172" customHeight="1">
       <c r="B263" t="s">
         <v>542</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="217" customHeight="1">
+    <row r="265" spans="2:4" ht="172" customHeight="1">
       <c r="B265" t="s">
         <v>546</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="274" spans="2:4" ht="217" customHeight="1">
+    <row r="274" spans="2:4" ht="172" customHeight="1">
       <c r="B274" t="s">
         <v>564</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="285" spans="2:4" ht="217" customHeight="1">
+    <row r="285" spans="2:4" ht="172" customHeight="1">
       <c r="B285" t="s">
         <v>586</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="296" spans="2:4" ht="217" customHeight="1">
+    <row r="296" spans="2:4" ht="172" customHeight="1">
       <c r="B296" t="s">
         <v>608</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="305" spans="2:4" ht="217" customHeight="1">
+    <row r="305" spans="2:4" ht="172" customHeight="1">
       <c r="B305" t="s">
         <v>626</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="316" spans="2:4" ht="217" customHeight="1">
+    <row r="316" spans="2:4" ht="172" customHeight="1">
       <c r="B316" t="s">
         <v>648</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="327" spans="2:4" ht="217" customHeight="1">
+    <row r="327" spans="2:4" ht="172" customHeight="1">
       <c r="B327" t="s">
         <v>670</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="344" spans="2:4" ht="217" customHeight="1">
+    <row r="344" spans="2:4" ht="172" customHeight="1">
       <c r="B344" t="s">
         <v>704</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="353" spans="2:4" ht="217" customHeight="1">
+    <row r="353" spans="2:4" ht="172" customHeight="1">
       <c r="B353" t="s">
         <v>722</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="355" spans="2:4" ht="217" customHeight="1">
+    <row r="355" spans="2:4" ht="172" customHeight="1">
       <c r="B355" t="s">
         <v>726</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="367" spans="2:4" ht="217" customHeight="1">
+    <row r="367" spans="2:4" ht="172" customHeight="1">
       <c r="B367" t="s">
         <v>750</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="377" spans="2:4" ht="217" customHeight="1">
+    <row r="377" spans="2:4" ht="172" customHeight="1">
       <c r="B377" t="s">
         <v>770</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="391" spans="2:4" ht="217" customHeight="1">
+    <row r="391" spans="2:4" ht="172" customHeight="1">
       <c r="B391" t="s">
         <v>798</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="393" spans="2:4" ht="217" customHeight="1">
+    <row r="393" spans="2:4" ht="172" customHeight="1">
       <c r="B393" t="s">
         <v>802</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="404" spans="2:4" ht="217" customHeight="1">
+    <row r="404" spans="2:4" ht="172" customHeight="1">
       <c r="B404" t="s">
         <v>824</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="406" spans="2:4" ht="217" customHeight="1">
+    <row r="406" spans="2:4" ht="172" customHeight="1">
       <c r="B406" t="s">
         <v>828</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="408" spans="2:4" ht="217" customHeight="1">
+    <row r="408" spans="2:4" ht="172" customHeight="1">
       <c r="B408" t="s">
         <v>832</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="418" spans="2:4" ht="217" customHeight="1">
+    <row r="418" spans="2:4" ht="172" customHeight="1">
       <c r="B418" t="s">
         <v>852</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="430" spans="2:4" ht="217" customHeight="1">
+    <row r="430" spans="2:4" ht="172" customHeight="1">
       <c r="B430" t="s">
         <v>875</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="432" spans="2:4" ht="217" customHeight="1">
+    <row r="432" spans="2:4" ht="172" customHeight="1">
       <c r="B432" t="s">
         <v>879</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="436" spans="2:4" ht="217" customHeight="1">
+    <row r="436" spans="2:4" ht="172" customHeight="1">
       <c r="B436" t="s">
         <v>887</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="441" spans="2:4" ht="217" customHeight="1">
+    <row r="441" spans="2:4" ht="172" customHeight="1">
       <c r="B441" t="s">
         <v>897</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="454" spans="2:4" ht="217" customHeight="1">
+    <row r="454" spans="2:4" ht="172" customHeight="1">
       <c r="B454" t="s">
         <v>923</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="458" spans="2:4" ht="217" customHeight="1">
+    <row r="458" spans="2:4" ht="172" customHeight="1">
       <c r="B458" t="s">
         <v>931</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="461" spans="2:4" ht="217" customHeight="1">
+    <row r="461" spans="2:4" ht="172" customHeight="1">
       <c r="B461" t="s">
         <v>937</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="473" spans="2:4" ht="217" customHeight="1">
+    <row r="473" spans="2:4" ht="172" customHeight="1">
       <c r="B473" t="s">
         <v>961</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="475" spans="2:4" ht="217" customHeight="1">
+    <row r="475" spans="2:4" ht="172" customHeight="1">
       <c r="B475" t="s">
         <v>965</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="490" spans="2:4" ht="217" customHeight="1">
+    <row r="490" spans="2:4" ht="172" customHeight="1">
       <c r="B490" t="s">
         <v>995</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="495" spans="2:4" ht="217" customHeight="1">
+    <row r="495" spans="2:4" ht="172" customHeight="1">
       <c r="B495" t="s">
         <v>1005</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="499" spans="2:4" ht="217" customHeight="1">
+    <row r="499" spans="2:4" ht="172" customHeight="1">
       <c r="B499" t="s">
         <v>1013</v>
       </c>
